--- a/raw_data/Données Amelio_sani.xlsx
+++ b/raw_data/Données Amelio_sani.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arnaud/Library/CloudStorage/Dropbox/CLESSN/ellipse_maroc/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06B2BA5-2AA3-DA45-9B6F-28714BA32356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903745A1-E02A-2F4E-BF25-943DAD939297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15600" xr2:uid="{C2A1274F-A44B-D34F-BAF4-DC0B3C791CBE}"/>
   </bookViews>
@@ -38,14 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="207">
   <si>
-    <t>Bus 
-Suq hebdomadaire 
-Complexe touristique ( hôtel) à Mibladen 
-Redémarrage de la mine 
-Réhabilitation des maisons 
-Médecin généraliste à Mibladen</t>
-  </si>
-  <si>
     <t>Alternative économique par des complexes touristique à Mibladen</t>
   </si>
   <si>
@@ -1329,6 +1321,14 @@
   </si>
   <si>
     <t>Données</t>
+  </si>
+  <si>
+    <t>Bus 
+Souk hebdomadaire 
+Complexe touristique ( hôtel) à Mibladen 
+Redémarrage de la mine 
+Réhabilitation des maisons 
+Médecin généraliste à Mibladen</t>
   </si>
 </sst>
 </file>
@@ -1725,7 +1725,7 @@
   <dimension ref="C1:D210"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1736,342 +1736,342 @@
   <sheetData>
     <row r="1" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C1" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="3:4" ht="84" x14ac:dyDescent="0.2">
       <c r="C2" s="2" t="s">
-        <v>0</v>
+        <v>206</v>
       </c>
       <c r="D2" s="4"/>
     </row>
     <row r="3" spans="3:4" ht="28" x14ac:dyDescent="0.2">
       <c r="C3" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="3:4" ht="42" x14ac:dyDescent="0.2">
       <c r="C4" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" s="4"/>
     </row>
     <row r="5" spans="3:4" ht="56" x14ac:dyDescent="0.2">
       <c r="C5" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" s="4"/>
     </row>
     <row r="6" spans="3:4" ht="84" x14ac:dyDescent="0.2">
       <c r="C6" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" s="4"/>
     </row>
     <row r="7" spans="3:4" ht="126" x14ac:dyDescent="0.2">
       <c r="C7" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" s="4"/>
     </row>
     <row r="8" spans="3:4" ht="84" x14ac:dyDescent="0.2">
       <c r="C8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="3:4" ht="56" x14ac:dyDescent="0.2">
       <c r="C9" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" s="4"/>
     </row>
     <row r="10" spans="3:4" ht="70" x14ac:dyDescent="0.2">
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10" s="4"/>
     </row>
     <row r="11" spans="3:4" ht="84" x14ac:dyDescent="0.2">
       <c r="C11" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11" s="4"/>
     </row>
     <row r="12" spans="3:4" ht="28" x14ac:dyDescent="0.2">
       <c r="C12" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12" s="4"/>
     </row>
     <row r="13" spans="3:4" ht="70" x14ac:dyDescent="0.2">
       <c r="C13" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="3:4" ht="56" x14ac:dyDescent="0.2">
       <c r="C14" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="3:4" ht="70" x14ac:dyDescent="0.2">
       <c r="C15" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D15" s="4"/>
     </row>
     <row r="16" spans="3:4" ht="70" x14ac:dyDescent="0.2">
       <c r="C16" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D16" s="4"/>
     </row>
     <row r="17" spans="3:4" ht="42" x14ac:dyDescent="0.2">
       <c r="C17" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D17" s="4"/>
     </row>
     <row r="18" spans="3:4" ht="56" x14ac:dyDescent="0.2">
       <c r="C18" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D18" s="4"/>
     </row>
     <row r="19" spans="3:4" ht="98" x14ac:dyDescent="0.2">
       <c r="C19" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D19" s="4"/>
     </row>
     <row r="20" spans="3:4" ht="42" x14ac:dyDescent="0.2">
       <c r="C20" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D20" s="4"/>
     </row>
     <row r="21" spans="3:4" ht="28" x14ac:dyDescent="0.2">
       <c r="C21" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D21" s="4"/>
     </row>
     <row r="22" spans="3:4" ht="42" x14ac:dyDescent="0.2">
       <c r="C22" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D22" s="4"/>
     </row>
     <row r="23" spans="3:4" ht="42" x14ac:dyDescent="0.2">
       <c r="C23" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D23" s="4"/>
     </row>
     <row r="24" spans="3:4" ht="56" x14ac:dyDescent="0.2">
       <c r="C24" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D24" s="4"/>
     </row>
     <row r="25" spans="3:4" ht="154" x14ac:dyDescent="0.2">
       <c r="C25" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D25" s="4"/>
     </row>
     <row r="26" spans="3:4" ht="56" x14ac:dyDescent="0.2">
       <c r="C26" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D26" s="4"/>
     </row>
     <row r="27" spans="3:4" ht="168" x14ac:dyDescent="0.2">
       <c r="C27" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D27" s="4"/>
     </row>
     <row r="28" spans="3:4" ht="70" x14ac:dyDescent="0.2">
       <c r="C28" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D28" s="4"/>
     </row>
     <row r="29" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C29" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" s="4"/>
     </row>
     <row r="30" spans="3:4" ht="56" x14ac:dyDescent="0.2">
       <c r="C30" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D30" s="4"/>
     </row>
     <row r="31" spans="3:4" ht="42" x14ac:dyDescent="0.2">
       <c r="C31" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D31" s="4"/>
     </row>
     <row r="32" spans="3:4" ht="56" x14ac:dyDescent="0.2">
       <c r="C32" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D32" s="4"/>
     </row>
     <row r="33" spans="3:4" ht="70" x14ac:dyDescent="0.2">
       <c r="C33" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D33" s="4"/>
     </row>
     <row r="34" spans="3:4" ht="28" x14ac:dyDescent="0.2">
       <c r="C34" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D34" s="4"/>
     </row>
     <row r="35" spans="3:4" ht="252" x14ac:dyDescent="0.2">
       <c r="C35" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D35" s="4"/>
     </row>
     <row r="36" spans="3:4" ht="56" x14ac:dyDescent="0.2">
       <c r="C36" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D36" s="4"/>
     </row>
     <row r="37" spans="3:4" ht="70" x14ac:dyDescent="0.2">
       <c r="C37" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D37" s="4"/>
     </row>
     <row r="38" spans="3:4" ht="42" x14ac:dyDescent="0.2">
       <c r="C38" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D38" s="4"/>
     </row>
     <row r="39" spans="3:4" ht="56" x14ac:dyDescent="0.2">
       <c r="C39" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D39" s="4"/>
     </row>
     <row r="40" spans="3:4" ht="126" x14ac:dyDescent="0.2">
       <c r="C40" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D40" s="4"/>
     </row>
     <row r="41" spans="3:4" ht="56" x14ac:dyDescent="0.2">
       <c r="C41" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D41" s="4"/>
     </row>
     <row r="42" spans="3:4" ht="70" x14ac:dyDescent="0.2">
       <c r="C42" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D42" s="4"/>
     </row>
     <row r="43" spans="3:4" ht="112" x14ac:dyDescent="0.2">
       <c r="C43" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D43" s="4"/>
     </row>
     <row r="44" spans="3:4" ht="98" x14ac:dyDescent="0.2">
       <c r="C44" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D44" s="4"/>
     </row>
     <row r="45" spans="3:4" ht="84" x14ac:dyDescent="0.2">
       <c r="C45" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D45" s="4"/>
     </row>
     <row r="46" spans="3:4" ht="84" x14ac:dyDescent="0.2">
       <c r="C46" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D46" s="4"/>
     </row>
     <row r="47" spans="3:4" ht="112" x14ac:dyDescent="0.2">
       <c r="C47" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D47" s="4"/>
     </row>
     <row r="48" spans="3:4" ht="112" x14ac:dyDescent="0.2">
       <c r="C48" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D48" s="4"/>
     </row>
     <row r="49" spans="3:4" ht="98" x14ac:dyDescent="0.2">
       <c r="C49" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D49" s="4"/>
     </row>
     <row r="50" spans="3:4" ht="56" x14ac:dyDescent="0.2">
       <c r="C50" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D50" s="4"/>
     </row>
     <row r="51" spans="3:4" ht="70" x14ac:dyDescent="0.2">
       <c r="C51" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D51" s="4"/>
     </row>
     <row r="52" spans="3:4" ht="126" x14ac:dyDescent="0.2">
       <c r="C52" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D52" s="4"/>
     </row>
     <row r="53" spans="3:4" ht="70" x14ac:dyDescent="0.2">
       <c r="C53" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D53" s="4"/>
     </row>
     <row r="54" spans="3:4" ht="28" x14ac:dyDescent="0.2">
       <c r="C54" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D54" s="4"/>
     </row>
     <row r="55" spans="3:4" ht="70" x14ac:dyDescent="0.2">
       <c r="C55" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D55" s="4"/>
     </row>
     <row r="56" spans="3:4" ht="112" x14ac:dyDescent="0.2">
       <c r="C56" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D56" s="4"/>
     </row>
     <row r="57" spans="3:4" ht="112" x14ac:dyDescent="0.2">
       <c r="C57" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D57" s="4"/>
     </row>
@@ -2081,217 +2081,217 @@
     </row>
     <row r="59" spans="3:4" ht="56" x14ac:dyDescent="0.2">
       <c r="C59" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D59" s="4"/>
     </row>
     <row r="60" spans="3:4" ht="154" x14ac:dyDescent="0.2">
       <c r="C60" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D60" s="4"/>
     </row>
     <row r="61" spans="3:4" ht="56" x14ac:dyDescent="0.2">
       <c r="C61" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D61" s="4"/>
     </row>
     <row r="62" spans="3:4" ht="70" x14ac:dyDescent="0.2">
       <c r="C62" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D62" s="4"/>
     </row>
     <row r="63" spans="3:4" ht="126" x14ac:dyDescent="0.2">
       <c r="C63" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D63" s="4"/>
     </row>
     <row r="64" spans="3:4" ht="112" x14ac:dyDescent="0.2">
       <c r="C64" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D64" s="4"/>
     </row>
     <row r="65" spans="3:4" ht="70" x14ac:dyDescent="0.2">
       <c r="C65" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D65" s="4"/>
     </row>
     <row r="66" spans="3:4" ht="42" x14ac:dyDescent="0.2">
       <c r="C66" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D66" s="4"/>
     </row>
     <row r="67" spans="3:4" ht="112" x14ac:dyDescent="0.2">
       <c r="C67" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D67" s="4"/>
     </row>
     <row r="68" spans="3:4" ht="42" x14ac:dyDescent="0.2">
       <c r="C68" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D68" s="4"/>
     </row>
     <row r="69" spans="3:4" ht="56" x14ac:dyDescent="0.2">
       <c r="C69" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D69" s="4"/>
     </row>
     <row r="70" spans="3:4" ht="70" x14ac:dyDescent="0.2">
       <c r="C70" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D70" s="4"/>
     </row>
     <row r="71" spans="3:4" ht="56" x14ac:dyDescent="0.2">
       <c r="C71" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D71" s="4"/>
     </row>
     <row r="72" spans="3:4" ht="56" x14ac:dyDescent="0.2">
       <c r="C72" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D72" s="4"/>
     </row>
     <row r="73" spans="3:4" ht="42" x14ac:dyDescent="0.2">
       <c r="C73" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D73" s="4"/>
     </row>
     <row r="74" spans="3:4" ht="56" x14ac:dyDescent="0.2">
       <c r="C74" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D74" s="4"/>
     </row>
     <row r="75" spans="3:4" ht="56" x14ac:dyDescent="0.2">
       <c r="C75" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D75" s="4"/>
     </row>
     <row r="76" spans="3:4" ht="70" x14ac:dyDescent="0.2">
       <c r="C76" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D76" s="4"/>
     </row>
     <row r="77" spans="3:4" ht="70" x14ac:dyDescent="0.2">
       <c r="C77" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D77" s="4"/>
     </row>
     <row r="78" spans="3:4" ht="56" x14ac:dyDescent="0.2">
       <c r="C78" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D78" s="4"/>
     </row>
     <row r="79" spans="3:4" ht="42" x14ac:dyDescent="0.2">
       <c r="C79" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D79" s="4"/>
     </row>
     <row r="80" spans="3:4" ht="84" x14ac:dyDescent="0.2">
       <c r="C80" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D80" s="4"/>
     </row>
     <row r="81" spans="3:4" ht="56" x14ac:dyDescent="0.2">
       <c r="C81" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D81" s="4"/>
     </row>
     <row r="82" spans="3:4" ht="56" x14ac:dyDescent="0.2">
       <c r="C82" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D82" s="4"/>
     </row>
     <row r="83" spans="3:4" ht="84" x14ac:dyDescent="0.2">
       <c r="C83" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D83" s="4"/>
     </row>
     <row r="84" spans="3:4" ht="70" x14ac:dyDescent="0.2">
       <c r="C84" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D84" s="4"/>
     </row>
     <row r="85" spans="3:4" ht="56" x14ac:dyDescent="0.2">
       <c r="C85" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D85" s="4"/>
     </row>
     <row r="86" spans="3:4" ht="42" x14ac:dyDescent="0.2">
       <c r="C86" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D86" s="4"/>
     </row>
     <row r="87" spans="3:4" ht="84" x14ac:dyDescent="0.2">
       <c r="C87" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D87" s="4"/>
     </row>
     <row r="88" spans="3:4" ht="56" x14ac:dyDescent="0.2">
       <c r="C88" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D88" s="4"/>
     </row>
     <row r="89" spans="3:4" ht="84" x14ac:dyDescent="0.2">
       <c r="C89" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D89" s="4"/>
     </row>
     <row r="90" spans="3:4" ht="140" x14ac:dyDescent="0.2">
       <c r="C90" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D90" s="4"/>
     </row>
     <row r="91" spans="3:4" ht="112" x14ac:dyDescent="0.2">
       <c r="C91" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D91" s="4"/>
     </row>
     <row r="92" spans="3:4" ht="196" x14ac:dyDescent="0.2">
       <c r="C92" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D92" s="4"/>
     </row>
     <row r="93" spans="3:4" ht="182" x14ac:dyDescent="0.2">
       <c r="C93" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D93" s="4"/>
     </row>
     <row r="94" spans="3:4" ht="98" x14ac:dyDescent="0.2">
       <c r="C94" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D94" s="4"/>
     </row>
@@ -2301,405 +2301,405 @@
     </row>
     <row r="96" spans="3:4" ht="56" x14ac:dyDescent="0.2">
       <c r="C96" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D96" s="4"/>
     </row>
     <row r="97" spans="3:4" ht="112" x14ac:dyDescent="0.2">
       <c r="C97" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D97" s="4"/>
     </row>
     <row r="98" spans="3:4" ht="126" x14ac:dyDescent="0.2">
       <c r="C98" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D98" s="4"/>
     </row>
     <row r="99" spans="3:4" ht="168" x14ac:dyDescent="0.2">
       <c r="C99" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D99" s="4"/>
     </row>
     <row r="100" spans="3:4" ht="112" x14ac:dyDescent="0.2">
       <c r="C100" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D100" s="4"/>
     </row>
     <row r="101" spans="3:4" ht="98" x14ac:dyDescent="0.2">
       <c r="C101" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D101" s="4"/>
     </row>
     <row r="102" spans="3:4" ht="56" x14ac:dyDescent="0.2">
       <c r="C102" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D102" s="4"/>
     </row>
     <row r="103" spans="3:4" ht="42" x14ac:dyDescent="0.2">
       <c r="C103" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D103" s="4"/>
     </row>
     <row r="104" spans="3:4" ht="28" x14ac:dyDescent="0.2">
       <c r="C104" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="105" spans="3:4" ht="56" x14ac:dyDescent="0.2">
       <c r="C105" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="106" spans="3:4" ht="70" x14ac:dyDescent="0.2">
       <c r="C106" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="107" spans="3:4" ht="126" x14ac:dyDescent="0.2">
       <c r="C107" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="108" spans="3:4" ht="154" x14ac:dyDescent="0.2">
       <c r="C108" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="109" spans="3:4" ht="68" x14ac:dyDescent="0.2">
       <c r="C109" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="110" spans="3:4" ht="34" x14ac:dyDescent="0.2">
       <c r="C110" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="111" spans="3:4" ht="51" x14ac:dyDescent="0.2">
       <c r="C111" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="112" spans="3:4" ht="34" x14ac:dyDescent="0.2">
       <c r="C112" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="113" spans="3:3" ht="153" x14ac:dyDescent="0.2">
       <c r="C113" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="114" spans="3:3" ht="68" x14ac:dyDescent="0.2">
       <c r="C114" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="115" spans="3:3" ht="51" x14ac:dyDescent="0.2">
       <c r="C115" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="116" spans="3:3" ht="68" x14ac:dyDescent="0.2">
       <c r="C116" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="117" spans="3:3" ht="34" x14ac:dyDescent="0.2">
       <c r="C117" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="118" spans="3:3" ht="85" x14ac:dyDescent="0.2">
       <c r="C118" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="119" spans="3:3" ht="51" x14ac:dyDescent="0.2">
       <c r="C119" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="120" spans="3:3" ht="17" x14ac:dyDescent="0.2">
       <c r="C120" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="121" spans="3:3" ht="34" x14ac:dyDescent="0.2">
       <c r="C121" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="122" spans="3:3" ht="68" x14ac:dyDescent="0.2">
       <c r="C122" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="123" spans="3:3" ht="34" x14ac:dyDescent="0.2">
       <c r="C123" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="124" spans="3:3" ht="51" x14ac:dyDescent="0.2">
       <c r="C124" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="125" spans="3:3" ht="68" x14ac:dyDescent="0.2">
       <c r="C125" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="126" spans="3:3" ht="17" x14ac:dyDescent="0.2">
       <c r="C126" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="127" spans="3:3" ht="51" x14ac:dyDescent="0.2">
       <c r="C127" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="128" spans="3:3" ht="51" x14ac:dyDescent="0.2">
       <c r="C128" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="129" spans="3:3" ht="51" x14ac:dyDescent="0.2">
       <c r="C129" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="130" spans="3:3" ht="17" x14ac:dyDescent="0.2">
       <c r="C130" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="131" spans="3:3" ht="51" x14ac:dyDescent="0.2">
       <c r="C131" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="132" spans="3:3" ht="51" x14ac:dyDescent="0.2">
       <c r="C132" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="133" spans="3:3" ht="34" x14ac:dyDescent="0.2">
       <c r="C133" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="134" spans="3:3" ht="34" x14ac:dyDescent="0.2">
       <c r="C134" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="135" spans="3:3" ht="51" x14ac:dyDescent="0.2">
       <c r="C135" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="136" spans="3:3" ht="51" x14ac:dyDescent="0.2">
       <c r="C136" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="137" spans="3:3" ht="51" x14ac:dyDescent="0.2">
       <c r="C137" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="138" spans="3:3" ht="85" x14ac:dyDescent="0.2">
       <c r="C138" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="139" spans="3:3" ht="51" x14ac:dyDescent="0.2">
       <c r="C139" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="140" spans="3:3" ht="68" x14ac:dyDescent="0.2">
       <c r="C140" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="141" spans="3:3" ht="85" x14ac:dyDescent="0.2">
       <c r="C141" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="142" spans="3:3" ht="85" x14ac:dyDescent="0.2">
       <c r="C142" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="143" spans="3:3" ht="51" x14ac:dyDescent="0.2">
       <c r="C143" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="144" spans="3:3" ht="85" x14ac:dyDescent="0.2">
       <c r="C144" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="145" spans="3:3" ht="85" x14ac:dyDescent="0.2">
       <c r="C145" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="146" spans="3:3" ht="68" x14ac:dyDescent="0.2">
       <c r="C146" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="147" spans="3:3" ht="17" x14ac:dyDescent="0.2">
       <c r="C147" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="148" spans="3:3" ht="51" x14ac:dyDescent="0.2">
       <c r="C148" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="149" spans="3:3" ht="34" x14ac:dyDescent="0.2">
       <c r="C149" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="150" spans="3:3" ht="68" x14ac:dyDescent="0.2">
       <c r="C150" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="151" spans="3:3" ht="68" x14ac:dyDescent="0.2">
       <c r="C151" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="152" spans="3:3" ht="68" x14ac:dyDescent="0.2">
       <c r="C152" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="153" spans="3:3" ht="51" x14ac:dyDescent="0.2">
       <c r="C153" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="154" spans="3:3" ht="85" x14ac:dyDescent="0.2">
       <c r="C154" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="155" spans="3:3" ht="51" x14ac:dyDescent="0.2">
       <c r="C155" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="156" spans="3:3" ht="17" x14ac:dyDescent="0.2">
       <c r="C156" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="157" spans="3:3" ht="102" x14ac:dyDescent="0.2">
       <c r="C157" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="158" spans="3:3" ht="119" x14ac:dyDescent="0.2">
       <c r="C158" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="159" spans="3:3" ht="51" x14ac:dyDescent="0.2">
       <c r="C159" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="160" spans="3:3" ht="34" x14ac:dyDescent="0.2">
       <c r="C160" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="161" spans="3:3" ht="85" x14ac:dyDescent="0.2">
       <c r="C161" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="162" spans="3:3" ht="68" x14ac:dyDescent="0.2">
       <c r="C162" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="163" spans="3:3" ht="102" x14ac:dyDescent="0.2">
       <c r="C163" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="164" spans="3:3" ht="68" x14ac:dyDescent="0.2">
       <c r="C164" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="165" spans="3:3" ht="51" x14ac:dyDescent="0.2">
       <c r="C165" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="166" spans="3:3" ht="85" x14ac:dyDescent="0.2">
       <c r="C166" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="167" spans="3:3" ht="34" x14ac:dyDescent="0.2">
       <c r="C167" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="168" spans="3:3" ht="68" x14ac:dyDescent="0.2">
       <c r="C168" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="169" spans="3:3" ht="51" x14ac:dyDescent="0.2">
       <c r="C169" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="170" spans="3:3" ht="85" x14ac:dyDescent="0.2">
       <c r="C170" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="171" spans="3:3" ht="119" x14ac:dyDescent="0.2">
       <c r="C171" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="172" spans="3:3" ht="85" x14ac:dyDescent="0.2">
       <c r="C172" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="173" spans="3:3" ht="68" x14ac:dyDescent="0.2">
       <c r="C173" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="174" spans="3:3" ht="119" x14ac:dyDescent="0.2">
       <c r="C174" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="175" spans="3:3" x14ac:dyDescent="0.2">
@@ -2707,177 +2707,177 @@
     </row>
     <row r="176" spans="3:3" ht="102" x14ac:dyDescent="0.2">
       <c r="C176" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="177" spans="3:3" ht="68" x14ac:dyDescent="0.2">
       <c r="C177" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="178" spans="3:3" ht="51" x14ac:dyDescent="0.2">
       <c r="C178" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="179" spans="3:3" ht="119" x14ac:dyDescent="0.2">
       <c r="C179" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="180" spans="3:3" ht="119" x14ac:dyDescent="0.2">
       <c r="C180" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="181" spans="3:3" ht="102" x14ac:dyDescent="0.2">
       <c r="C181" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="182" spans="3:3" ht="85" x14ac:dyDescent="0.2">
       <c r="C182" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="183" spans="3:3" ht="68" x14ac:dyDescent="0.2">
       <c r="C183" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="184" spans="3:3" ht="102" x14ac:dyDescent="0.2">
       <c r="C184" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="185" spans="3:3" ht="85" x14ac:dyDescent="0.2">
       <c r="C185" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="186" spans="3:3" ht="68" x14ac:dyDescent="0.2">
       <c r="C186" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="187" spans="3:3" ht="102" x14ac:dyDescent="0.2">
       <c r="C187" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="188" spans="3:3" ht="85" x14ac:dyDescent="0.2">
       <c r="C188" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="189" spans="3:3" ht="136" x14ac:dyDescent="0.2">
       <c r="C189" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="190" spans="3:3" ht="85" x14ac:dyDescent="0.2">
       <c r="C190" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="191" spans="3:3" ht="119" x14ac:dyDescent="0.2">
       <c r="C191" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="192" spans="3:3" ht="68" x14ac:dyDescent="0.2">
       <c r="C192" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="193" spans="3:3" ht="68" x14ac:dyDescent="0.2">
       <c r="C193" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="194" spans="3:3" ht="51" x14ac:dyDescent="0.2">
       <c r="C194" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="195" spans="3:3" ht="85" x14ac:dyDescent="0.2">
       <c r="C195" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="196" spans="3:3" ht="85" x14ac:dyDescent="0.2">
       <c r="C196" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="197" spans="3:3" ht="102" x14ac:dyDescent="0.2">
       <c r="C197" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="198" spans="3:3" ht="102" x14ac:dyDescent="0.2">
       <c r="C198" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="199" spans="3:3" ht="51" x14ac:dyDescent="0.2">
       <c r="C199" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="200" spans="3:3" ht="68" x14ac:dyDescent="0.2">
       <c r="C200" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="201" spans="3:3" ht="51" x14ac:dyDescent="0.2">
       <c r="C201" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="202" spans="3:3" ht="68" x14ac:dyDescent="0.2">
       <c r="C202" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="203" spans="3:3" ht="51" x14ac:dyDescent="0.2">
       <c r="C203" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="204" spans="3:3" ht="34" x14ac:dyDescent="0.2">
       <c r="C204" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="205" spans="3:3" ht="68" x14ac:dyDescent="0.2">
       <c r="C205" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="206" spans="3:3" ht="34" x14ac:dyDescent="0.2">
       <c r="C206" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="207" spans="3:3" ht="51" x14ac:dyDescent="0.2">
       <c r="C207" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="208" spans="3:3" ht="85" x14ac:dyDescent="0.2">
       <c r="C208" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="209" spans="3:3" ht="51" x14ac:dyDescent="0.2">
       <c r="C209" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="210" spans="3:3" ht="68" x14ac:dyDescent="0.2">
       <c r="C210" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
